--- a/Output/Supplementary/model_not_rep.xlsx
+++ b/Output/Supplementary/model_not_rep.xlsx
@@ -401,22 +401,22 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.06800850226430798</v>
+        <v>0.06800629716652239</v>
       </c>
       <c r="C2">
-        <v>0.03430463887617714</v>
+        <v>0.03430464784936536</v>
       </c>
       <c r="D2">
-        <v>-78.36032199686446</v>
+        <v>-78.36124668900632</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.06357710646446613</v>
+        <v>0.06357504389665312</v>
       </c>
       <c r="G2">
-        <v>0.07272812976382057</v>
+        <v>0.07272577287441945</v>
       </c>
     </row>
     <row r="3">
@@ -426,22 +426,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.7816119827692322</v>
+        <v>0.7816194415163488</v>
       </c>
       <c r="C3">
-        <v>0.009801704838970507</v>
+        <v>0.009801714560890863</v>
       </c>
       <c r="D3">
-        <v>-25.13816232408284</v>
+        <v>-25.13716381301635</v>
       </c>
       <c r="E3">
-        <v>1.904026217809657e-139</v>
+        <v>1.952499873354248e-139</v>
       </c>
       <c r="F3">
-        <v>0.7667353846116375</v>
+        <v>0.7667426867909765</v>
       </c>
       <c r="G3">
-        <v>0.7967683133944992</v>
+        <v>0.7967759319626634</v>
       </c>
     </row>
     <row r="4">
@@ -451,22 +451,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.7060111121493315</v>
+        <v>0.7060166237611111</v>
       </c>
       <c r="C4">
-        <v>0.3918728334013198</v>
+        <v>0.391873144274199</v>
       </c>
       <c r="D4">
-        <v>-0.8883603872278538</v>
+        <v>-0.8883397610903525</v>
       </c>
       <c r="E4">
-        <v>0.3743469263087756</v>
+        <v>0.3743580178725885</v>
       </c>
       <c r="F4">
-        <v>0.3149135752341546</v>
+        <v>0.3149158134374752</v>
       </c>
       <c r="G4">
-        <v>1.482174525171094</v>
+        <v>1.482186883986452</v>
       </c>
     </row>
     <row r="5">
@@ -476,22 +476,22 @@
         </is>
       </c>
       <c r="B5">
-        <v>1.540242218574621</v>
+        <v>1.540284332844172</v>
       </c>
       <c r="C5">
-        <v>0.02301978148832341</v>
+        <v>0.02301981206609671</v>
       </c>
       <c r="D5">
-        <v>18.76384834779579</v>
+        <v>18.76501119383119</v>
       </c>
       <c r="E5">
-        <v>1.491960573437718e-078</v>
+        <v>1.459668433665846e-078</v>
       </c>
       <c r="F5">
-        <v>1.472372450965013</v>
+        <v>1.472412621168533</v>
       </c>
       <c r="G5">
-        <v>1.611418664333093</v>
+        <v>1.611462821182601</v>
       </c>
     </row>
     <row r="6">
@@ -501,22 +501,22 @@
         </is>
       </c>
       <c r="B6">
-        <v>2.486792555749059</v>
+        <v>2.486799311943248</v>
       </c>
       <c r="C6">
-        <v>0.02130405285931056</v>
+        <v>0.02130405610979364</v>
       </c>
       <c r="D6">
-        <v>42.76152316737904</v>
+        <v>42.76164416928215</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.38531018465635</v>
+        <v>2.385316650150609</v>
       </c>
       <c r="G6">
-        <v>2.593072135645815</v>
+        <v>2.593079197261787</v>
       </c>
     </row>
     <row r="7">
@@ -526,22 +526,22 @@
         </is>
       </c>
       <c r="B7">
-        <v>4.651919573036023</v>
+        <v>4.651940758242555</v>
       </c>
       <c r="C7">
-        <v>0.02082194293335723</v>
+        <v>0.02082195372690045</v>
       </c>
       <c r="D7">
-        <v>73.8298030468097</v>
+        <v>73.82998349014984</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4.466359150765956</v>
+        <v>4.466379396977116</v>
       </c>
       <c r="G7">
-        <v>4.846214037574234</v>
+        <v>4.846236210595998</v>
       </c>
     </row>
     <row r="8">
@@ -551,22 +551,22 @@
         </is>
       </c>
       <c r="B8">
-        <v>7.547331500453462</v>
+        <v>7.547424436698639</v>
       </c>
       <c r="C8">
-        <v>0.02135449770416416</v>
+        <v>0.02135454220092012</v>
       </c>
       <c r="D8">
-        <v>94.64957149248804</v>
+        <v>94.64995090188501</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>7.238710426319963</v>
+        <v>7.238798931991791</v>
       </c>
       <c r="G8">
-        <v>7.870760534585111</v>
+        <v>7.870858140759909</v>
       </c>
     </row>
     <row r="9">
@@ -576,22 +576,22 @@
         </is>
       </c>
       <c r="B9">
-        <v>12.6439734770585</v>
+        <v>12.64412303117807</v>
       </c>
       <c r="C9">
-        <v>0.02232182176440167</v>
+        <v>0.02232184341574955</v>
       </c>
       <c r="D9">
-        <v>113.6636930202198</v>
+        <v>113.6641126563906</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>12.10396442237079</v>
+        <v>12.10410707754659</v>
       </c>
       <c r="G9">
-        <v>13.21082069214421</v>
+        <v>13.21097751341511</v>
       </c>
     </row>
     <row r="10">
@@ -601,22 +601,22 @@
         </is>
       </c>
       <c r="B10">
-        <v>1.155864747753367</v>
+        <v>1.155853942242938</v>
       </c>
       <c r="C10">
-        <v>0.01246801402504025</v>
+        <v>0.01246801699801566</v>
       </c>
       <c r="D10">
-        <v>11.61762915095122</v>
+        <v>11.61687658510603</v>
       </c>
       <c r="E10">
-        <v>3.353124723601214e-031</v>
+        <v>3.3827847672179e-031</v>
       </c>
       <c r="F10">
-        <v>1.127962252746687</v>
+        <v>1.127951701557392</v>
       </c>
       <c r="G10">
-        <v>1.184459692807582</v>
+        <v>1.184448626930164</v>
       </c>
     </row>
     <row r="11">
@@ -626,22 +626,22 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.9575590042432677</v>
+        <v>0.9575502468851485</v>
       </c>
       <c r="C11">
-        <v>0.04535016592424929</v>
+        <v>0.04535014921836071</v>
       </c>
       <c r="D11">
-        <v>-0.9562905826594367</v>
+        <v>-0.9564926000729985</v>
       </c>
       <c r="E11">
-        <v>0.3389254464223548</v>
+        <v>0.3388234211951105</v>
       </c>
       <c r="F11">
-        <v>0.8759576764309149</v>
+        <v>0.8759496934319382</v>
       </c>
       <c r="G11">
-        <v>1.046392701949901</v>
+        <v>1.046383097181005</v>
       </c>
     </row>
     <row r="12">
@@ -651,22 +651,22 @@
         </is>
       </c>
       <c r="B12">
-        <v>1.155601074518784</v>
+        <v>1.155602216494365</v>
       </c>
       <c r="C12">
-        <v>0.1067497905124863</v>
+        <v>0.1067497486866071</v>
       </c>
       <c r="D12">
-        <v>1.354762559734078</v>
+        <v>1.354772347792897</v>
       </c>
       <c r="E12">
-        <v>0.175493218804641</v>
+        <v>0.1754900992995164</v>
       </c>
       <c r="F12">
-        <v>0.9366265521989469</v>
+        <v>0.9366275556097755</v>
       </c>
       <c r="G12">
-        <v>1.423593936711255</v>
+        <v>1.423595228889892</v>
       </c>
     </row>
     <row r="13">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.8414666764638807</v>
+        <v>0.8414712433285161</v>
       </c>
       <c r="C13">
-        <v>0.01360974963336905</v>
+        <v>0.013609727518912</v>
       </c>
       <c r="D13">
-        <v>-12.68273634321167</v>
+        <v>-12.68235817393486</v>
       </c>
       <c r="E13">
-        <v>7.37128222467321e-037</v>
+        <v>7.406939107550607e-037</v>
       </c>
       <c r="F13">
-        <v>0.8193142620274417</v>
+        <v>0.8193187443008503</v>
       </c>
       <c r="G13">
-        <v>0.8642113134520272</v>
+        <v>0.8642159664265813</v>
       </c>
     </row>
     <row r="14">
@@ -701,22 +701,22 @@
         </is>
       </c>
       <c r="B14">
-        <v>1.417825009490664</v>
+        <v>1.417968402808542</v>
       </c>
       <c r="C14">
-        <v>0.02753229246272313</v>
+        <v>0.02753241598549508</v>
       </c>
       <c r="D14">
-        <v>12.6805283069796</v>
+        <v>12.68414457772122</v>
       </c>
       <c r="E14">
-        <v>7.581910295001579e-037</v>
+        <v>7.239996488502125e-037</v>
       </c>
       <c r="F14">
-        <v>1.343457039731004</v>
+        <v>1.343592587238467</v>
       </c>
       <c r="G14">
-        <v>1.496566947849265</v>
+        <v>1.49671866798625</v>
       </c>
     </row>
     <row r="15">
@@ -726,22 +726,22 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.731431765883857</v>
+        <v>1.731429336432446</v>
       </c>
       <c r="C15">
-        <v>0.0260677225553084</v>
+        <v>0.02606773219869161</v>
       </c>
       <c r="D15">
-        <v>21.05855912045495</v>
+        <v>21.0584975031787</v>
       </c>
       <c r="E15">
-        <v>1.90892861961565e-098</v>
+        <v>1.911412762071315e-098</v>
       </c>
       <c r="F15">
-        <v>1.645356481671351</v>
+        <v>1.645354141689812</v>
       </c>
       <c r="G15">
-        <v>1.822380449882017</v>
+        <v>1.822377927017683</v>
       </c>
     </row>
     <row r="16">
@@ -751,22 +751,22 @@
         </is>
       </c>
       <c r="B16">
-        <v>2.043565702808989</v>
+        <v>2.043560589771206</v>
       </c>
       <c r="C16">
-        <v>0.03967715555891837</v>
+        <v>0.03967716576998572</v>
       </c>
       <c r="D16">
-        <v>18.01278759865841</v>
+        <v>18.01271990353265</v>
       </c>
       <c r="E16">
-        <v>1.546410181520501e-072</v>
+        <v>1.548302769997471e-072</v>
       </c>
       <c r="F16">
-        <v>1.890904750403577</v>
+        <v>1.890899981415871</v>
       </c>
       <c r="G16">
-        <v>2.209114871921988</v>
+        <v>2.209109388796352</v>
       </c>
     </row>
     <row r="17">
@@ -776,22 +776,22 @@
         </is>
       </c>
       <c r="B17">
-        <v>1.404332629630724</v>
+        <v>1.404313742310279</v>
       </c>
       <c r="C17">
-        <v>0.02420716222915283</v>
+        <v>0.02420716957294017</v>
       </c>
       <c r="D17">
-        <v>14.02734405712333</v>
+        <v>14.02678420541009</v>
       </c>
       <c r="E17">
-        <v>1.060493492175107e-044</v>
+        <v>1.068896652768669e-044</v>
       </c>
       <c r="F17">
-        <v>1.339419699764661</v>
+        <v>1.339401665777405</v>
       </c>
       <c r="G17">
-        <v>1.472748002117491</v>
+        <v>1.472728215382988</v>
       </c>
     </row>
     <row r="18">
@@ -801,22 +801,22 @@
         </is>
       </c>
       <c r="B18">
-        <v>1.211137548018413</v>
+        <v>1.211148292092375</v>
       </c>
       <c r="C18">
-        <v>0.0174239693878733</v>
+        <v>0.01742396696153344</v>
       </c>
       <c r="D18">
-        <v>10.9940528495772</v>
+        <v>10.99456350803213</v>
       </c>
       <c r="E18">
-        <v>4.08176242363593e-028</v>
+        <v>4.058724721653306e-028</v>
       </c>
       <c r="F18">
-        <v>1.170516998320879</v>
+        <v>1.17052738758342</v>
       </c>
       <c r="G18">
-        <v>1.253258747583048</v>
+        <v>1.253269859320568</v>
       </c>
     </row>
     <row r="19">
@@ -826,22 +826,22 @@
         </is>
       </c>
       <c r="B19">
-        <v>1.348437807380786</v>
+        <v>1.348444631263279</v>
       </c>
       <c r="C19">
-        <v>0.02489970036925597</v>
+        <v>0.02489968847220562</v>
       </c>
       <c r="D19">
-        <v>12.00603775345443</v>
+        <v>12.00624672825403</v>
       </c>
       <c r="E19">
-        <v>3.302945716725976e-033</v>
+        <v>3.294612499423123e-033</v>
       </c>
       <c r="F19">
-        <v>1.284203048009381</v>
+        <v>1.28420957674953</v>
       </c>
       <c r="G19">
-        <v>1.415870651276038</v>
+        <v>1.415877783363831</v>
       </c>
     </row>
     <row r="20">
@@ -851,22 +851,22 @@
         </is>
       </c>
       <c r="B20">
-        <v>2.119366423538164</v>
+        <v>2.119384264379527</v>
       </c>
       <c r="C20">
-        <v>0.02028885980945191</v>
+        <v>0.02028885941908037</v>
       </c>
       <c r="D20">
-        <v>37.02116305450445</v>
+        <v>37.02157867291802</v>
       </c>
       <c r="E20">
-        <v>5.229217078623571e-300</v>
+        <v>5.149314480129851e-300</v>
       </c>
       <c r="F20">
-        <v>2.03680317052568</v>
+        <v>2.036820318018998</v>
       </c>
       <c r="G20">
-        <v>2.205409471512903</v>
+        <v>2.205428035090963</v>
       </c>
     </row>
     <row r="21">
@@ -876,22 +876,22 @@
         </is>
       </c>
       <c r="B21">
-        <v>2.432413687296477</v>
+        <v>2.432410591134916</v>
       </c>
       <c r="C21">
-        <v>0.02596168275185956</v>
+        <v>0.0259616568449605</v>
       </c>
       <c r="D21">
-        <v>34.23830650033683</v>
+        <v>34.2382916373144</v>
       </c>
       <c r="E21">
-        <v>6.511469827579175e-257</v>
+        <v>6.514787080902055e-257</v>
       </c>
       <c r="F21">
-        <v>2.311783869644055</v>
+        <v>2.311781043777632</v>
       </c>
       <c r="G21">
-        <v>2.559440212361156</v>
+        <v>2.559436823832033</v>
       </c>
     </row>
     <row r="22">
@@ -901,22 +901,22 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.9942778224457382</v>
+        <v>0.9942538211914078</v>
       </c>
       <c r="C22">
-        <v>0.01509482257749992</v>
+        <v>0.01509487871209131</v>
       </c>
       <c r="D22">
-        <v>-0.3801708768950327</v>
+        <v>-0.38176865951094</v>
       </c>
       <c r="E22">
-        <v>0.7038185760254042</v>
+        <v>0.7026329672499052</v>
       </c>
       <c r="F22">
-        <v>0.9652934156615923</v>
+        <v>0.9652700074515198</v>
       </c>
       <c r="G22">
-        <v>1.024134462575012</v>
+        <v>1.024109852829658</v>
       </c>
     </row>
     <row r="23">
@@ -926,22 +926,22 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.8992508835408816</v>
+        <v>0.8992279634173148</v>
       </c>
       <c r="C23">
-        <v>0.02134184434569082</v>
+        <v>0.02134188292666112</v>
       </c>
       <c r="D23">
-        <v>-4.975821777908424</v>
+        <v>-4.977007070313814</v>
       </c>
       <c r="E23">
-        <v>6.497140594887989e-007</v>
+        <v>6.457496384123532e-007</v>
       </c>
       <c r="F23">
-        <v>0.8624175857770711</v>
+        <v>0.8623955391058695</v>
       </c>
       <c r="G23">
-        <v>0.9376704253242687</v>
+        <v>0.9376465967080172</v>
       </c>
     </row>
     <row r="24">
@@ -951,22 +951,22 @@
         </is>
       </c>
       <c r="B24">
-        <v>1.319600880762274</v>
+        <v>1.319594956848931</v>
       </c>
       <c r="C24">
-        <v>0.05563754479906988</v>
+        <v>0.05563753791449208</v>
       </c>
       <c r="D24">
-        <v>4.984571638091165</v>
+        <v>4.984491568697908</v>
       </c>
       <c r="E24">
-        <v>6.209923510227807e-007</v>
+        <v>6.212495461980378e-007</v>
       </c>
       <c r="F24">
-        <v>1.183263482360731</v>
+        <v>1.183258186410276</v>
       </c>
       <c r="G24">
-        <v>1.471665876467883</v>
+        <v>1.471659249942075</v>
       </c>
     </row>
     <row r="25">
@@ -976,22 +976,22 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.9283071181402125</v>
+        <v>0.9283025543603757</v>
       </c>
       <c r="C25">
-        <v>0.05994876025139563</v>
+        <v>0.05994876480391671</v>
       </c>
       <c r="D25">
-        <v>-1.240937333196343</v>
+        <v>-1.241019246508484</v>
       </c>
       <c r="E25">
-        <v>0.2146288998975073</v>
+        <v>0.2145986389927119</v>
       </c>
       <c r="F25">
-        <v>0.8253823867091911</v>
+        <v>0.8253783219158034</v>
       </c>
       <c r="G25">
-        <v>1.044045766312264</v>
+        <v>1.044040643231314</v>
       </c>
     </row>
     <row r="26">
@@ -1001,22 +1001,22 @@
         </is>
       </c>
       <c r="B26">
-        <v>2.05076175157905</v>
+        <v>2.0507506960578</v>
       </c>
       <c r="C26">
-        <v>0.05238005769720022</v>
+        <v>0.05238006112641839</v>
       </c>
       <c r="D26">
-        <v>13.7115410299328</v>
+        <v>13.71143721240608</v>
       </c>
       <c r="E26">
-        <v>8.659881337516691e-043</v>
+        <v>8.672282377001683e-043</v>
       </c>
       <c r="F26">
-        <v>1.850978419688284</v>
+        <v>1.850968429087175</v>
       </c>
       <c r="G26">
-        <v>2.272913562634067</v>
+        <v>2.272901325172859</v>
       </c>
     </row>
     <row r="27">
@@ -1026,22 +1026,22 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.9857164771046172</v>
+        <v>0.9857093206360232</v>
       </c>
       <c r="C27">
-        <v>0.05828498739870841</v>
+        <v>0.05828498500878326</v>
       </c>
       <c r="D27">
-        <v>-0.2468305295589373</v>
+        <v>-0.2469551034204587</v>
       </c>
       <c r="E27">
-        <v>0.8050393821907396</v>
+        <v>0.8049429703117019</v>
       </c>
       <c r="F27">
-        <v>0.8792305911484671</v>
+        <v>0.8792242121056014</v>
       </c>
       <c r="G27">
-        <v>1.104928929392491</v>
+        <v>1.104920902497423</v>
       </c>
     </row>
     <row r="28">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B28">
-        <v>1.192787421686764</v>
+        <v>1.192891030899138</v>
       </c>
       <c r="C28">
-        <v>0.01504032805491419</v>
+        <v>0.01504039569868977</v>
       </c>
       <c r="D28">
-        <v>11.72134933295555</v>
+        <v>11.72707168577259</v>
       </c>
       <c r="E28">
-        <v>9.908113762721293e-032</v>
+        <v>9.260728346236342e-032</v>
       </c>
       <c r="F28">
-        <v>1.158140279479816</v>
+        <v>1.15824072702132</v>
       </c>
       <c r="G28">
-        <v>1.228474147210626</v>
+        <v>1.228581020704644</v>
       </c>
     </row>
     <row r="29">
@@ -1076,22 +1076,22 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.8692784418264258</v>
+        <v>0.8693510049768799</v>
       </c>
       <c r="C29">
-        <v>0.02214855311377744</v>
+        <v>0.02214861730141729</v>
       </c>
       <c r="D29">
-        <v>-6.325098887878744</v>
+        <v>-6.321311849589954</v>
       </c>
       <c r="E29">
-        <v>2.53070462940915e-010</v>
+        <v>2.59352026796244e-010</v>
       </c>
       <c r="F29">
-        <v>0.8323529026842217</v>
+        <v>0.8324222796586761</v>
       </c>
       <c r="G29">
-        <v>0.9078487007692609</v>
+        <v>0.9079245987933382</v>
       </c>
     </row>
     <row r="30">
@@ -1101,22 +1101,22 @@
         </is>
       </c>
       <c r="B30">
-        <v>1.695110284855322</v>
+        <v>1.695112022020096</v>
       </c>
       <c r="C30">
-        <v>0.02868784128259481</v>
+        <v>0.02868784332099981</v>
       </c>
       <c r="D30">
-        <v>18.39621874397987</v>
+        <v>18.39625315959674</v>
       </c>
       <c r="E30">
-        <v>1.408577119350478e-075</v>
+        <v>1.407682988185251e-075</v>
       </c>
       <c r="F30">
-        <v>1.602539946196941</v>
+        <v>1.602541582100527</v>
       </c>
       <c r="G30">
-        <v>1.793282879193014</v>
+        <v>1.793284724133587</v>
       </c>
     </row>
     <row r="31">
@@ -1126,22 +1126,22 @@
         </is>
       </c>
       <c r="B31">
-        <v>1.171220764010001</v>
+        <v>1.171219528819611</v>
       </c>
       <c r="C31">
-        <v>0.040205758413514</v>
+        <v>0.04020576711801664</v>
       </c>
       <c r="D31">
-        <v>3.930944201473117</v>
+        <v>3.930917119901118</v>
       </c>
       <c r="E31">
-        <v>8.461290950142369e-005</v>
+        <v>8.462244202507399e-005</v>
       </c>
       <c r="F31">
-        <v>1.082449304223212</v>
+        <v>1.082448144539385</v>
       </c>
       <c r="G31">
-        <v>1.267232022444072</v>
+        <v>1.267230708026008</v>
       </c>
     </row>
     <row r="32">
@@ -1151,22 +1151,22 @@
         </is>
       </c>
       <c r="B32">
-        <v>1.570193344274547</v>
+        <v>1.570195804268705</v>
       </c>
       <c r="C32">
-        <v>0.02832684923337062</v>
+        <v>0.02832684665966117</v>
       </c>
       <c r="D32">
-        <v>15.9283073553374</v>
+        <v>15.92836410983434</v>
       </c>
       <c r="E32">
-        <v>4.031224164550614e-057</v>
+        <v>4.027567325991798e-057</v>
       </c>
       <c r="F32">
-        <v>1.485460882500002</v>
+        <v>1.485463217333504</v>
       </c>
       <c r="G32">
-        <v>1.659917619007641</v>
+        <v>1.65992021130317</v>
       </c>
     </row>
     <row r="33">
@@ -1176,22 +1176,22 @@
         </is>
       </c>
       <c r="B33">
-        <v>1.017744856062853</v>
+        <v>1.017742825615017</v>
       </c>
       <c r="C33">
-        <v>0.04121492374892466</v>
+        <v>0.04121492827278463</v>
       </c>
       <c r="D33">
-        <v>0.4267690575062093</v>
+        <v>0.426720604706498</v>
       </c>
       <c r="E33">
-        <v>0.6695475459329834</v>
+        <v>0.6695828409994522</v>
       </c>
       <c r="F33">
-        <v>0.9387440804144704</v>
+        <v>0.9387421993600965</v>
       </c>
       <c r="G33">
-        <v>1.10335138281559</v>
+        <v>1.103349191476776</v>
       </c>
     </row>
     <row r="34">
@@ -1201,22 +1201,22 @@
         </is>
       </c>
       <c r="B34">
-        <v>1.959085099475705</v>
+        <v>1.959081171360187</v>
       </c>
       <c r="C34">
-        <v>0.03224888443484116</v>
+        <v>0.03224888628627862</v>
       </c>
       <c r="D34">
-        <v>20.85273925183032</v>
+        <v>20.8526758795313</v>
       </c>
       <c r="E34">
-        <v>1.439417422732467e-096</v>
+        <v>1.441325207574512e-096</v>
       </c>
       <c r="F34">
-        <v>1.839132710876537</v>
+        <v>1.839129017029753</v>
       </c>
       <c r="G34">
-        <v>2.086967681025481</v>
+        <v>2.086963504547182</v>
       </c>
     </row>
     <row r="35">
@@ -1226,22 +1226,22 @@
         </is>
       </c>
       <c r="B35">
-        <v>1.093633224876605</v>
+        <v>1.093629829551335</v>
       </c>
       <c r="C35">
-        <v>0.04461023218470246</v>
+        <v>0.04461022559221879</v>
       </c>
       <c r="D35">
-        <v>2.006386938138352</v>
+        <v>2.00631763997715</v>
       </c>
       <c r="E35">
-        <v>0.04481498082285702</v>
+        <v>0.04482236915682936</v>
       </c>
       <c r="F35">
-        <v>1.002067155832465</v>
+        <v>1.00206405831072</v>
       </c>
       <c r="G35">
-        <v>1.19356126696926</v>
+        <v>1.193557546673856</v>
       </c>
     </row>
     <row r="36">
@@ -1251,22 +1251,22 @@
         </is>
       </c>
       <c r="B36">
-        <v>2.001432302982981</v>
+        <v>2.001407310872239</v>
       </c>
       <c r="C36">
-        <v>0.02662256011118299</v>
+        <v>0.02662256354754434</v>
       </c>
       <c r="D36">
-        <v>26.0629733894698</v>
+        <v>26.06250097994984</v>
       </c>
       <c r="E36">
-        <v>9.589792124754556e-150</v>
+        <v>9.708769705866438e-150</v>
       </c>
       <c r="F36">
-        <v>1.899770000560067</v>
+        <v>1.899746264946369</v>
       </c>
       <c r="G36">
-        <v>2.108747566975171</v>
+        <v>2.108721248819313</v>
       </c>
     </row>
     <row r="37">
@@ -1276,22 +1276,22 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.9940620727144504</v>
+        <v>0.9940495572425998</v>
       </c>
       <c r="C37">
-        <v>0.03693169104026348</v>
+        <v>0.03693168928824186</v>
       </c>
       <c r="D37">
-        <v>-0.1612606059653294</v>
+        <v>-0.1616015216873958</v>
       </c>
       <c r="E37">
-        <v>0.8718881490061944</v>
+        <v>0.8716196589319518</v>
       </c>
       <c r="F37">
-        <v>0.9246170595242119</v>
+        <v>0.9246054214626032</v>
       </c>
       <c r="G37">
-        <v>1.068652323033659</v>
+        <v>1.0686388646738</v>
       </c>
     </row>
     <row r="38">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="B38">
-        <v>1.799943166818274</v>
+        <v>1.799911189803114</v>
       </c>
       <c r="C38">
-        <v>0.02435254599516848</v>
+        <v>0.02435256625290577</v>
       </c>
       <c r="D38">
-        <v>24.13526251137818</v>
+        <v>24.13451291263858</v>
       </c>
       <c r="E38">
-        <v>1.066379171565561e-128</v>
+        <v>1.085880732291731e-128</v>
       </c>
       <c r="F38">
-        <v>1.716004687089033</v>
+        <v>1.71597413326277</v>
       </c>
       <c r="G38">
-        <v>1.887892417313109</v>
+        <v>1.887858952892439</v>
       </c>
     </row>
     <row r="39">
@@ -1326,22 +1326,22 @@
         </is>
       </c>
       <c r="B39">
-        <v>1.034235304595176</v>
+        <v>1.034220621144864</v>
       </c>
       <c r="C39">
-        <v>0.02955447734703592</v>
+        <v>0.02955447821054441</v>
       </c>
       <c r="D39">
-        <v>1.138992143498292</v>
+        <v>1.138511726206641</v>
       </c>
       <c r="E39">
-        <v>0.2547064310848888</v>
+        <v>0.2549068652320036</v>
       </c>
       <c r="F39">
-        <v>0.9760215988134284</v>
+        <v>0.9760077402187741</v>
       </c>
       <c r="G39">
-        <v>1.095908698949706</v>
+        <v>1.09589314177764</v>
       </c>
     </row>
   </sheetData>
